--- a/Class 10(Kabir).xlsx
+++ b/Class 10(Kabir).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kabir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE177B4-BF00-470E-90ED-08793369D1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2269ED5-3FE2-4B5B-A87C-EAB6D8D5A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,6 @@
     <sheet name="Class 8" sheetId="3" r:id="rId3"/>
     <sheet name="Class 10" sheetId="4" r:id="rId4"/>
     <sheet name="Class 10(2)" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -323,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,8 +330,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -381,8 +410,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -569,11 +646,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,8 +763,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="7" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="18" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
+    <cellStyle name="20% - Accent5" xfId="7" builtinId="46"/>
+    <cellStyle name="40% - Accent2" xfId="5" builtinId="35"/>
+    <cellStyle name="40% - Accent6" xfId="8" builtinId="51"/>
+    <cellStyle name="Accent2" xfId="4" builtinId="33"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2905,7 +3075,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3183,7 +3353,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3195,35 +3365,35 @@
     <col min="14" max="14" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:15" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="J1" s="37" t="s">
         <v>82</v>
       </c>
       <c r="K1" s="30"/>
@@ -3232,39 +3402,39 @@
       <c r="N1" s="32"/>
       <c r="O1" s="29"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="33">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="42">
         <v>90</v>
       </c>
-      <c r="D2" s="33" t="str">
+      <c r="D2" s="44" t="str">
         <f>IF(C2&gt;=90,"Excellent",IF(C2&gt;=85,"Very Good",IF(C2&gt;=80,"Good",IF(C2&gt;=75,"Above Average",IF(C2&gt;=45,"Barely Passing",IF(C2&gt;=0,"Fail"))))))</f>
         <v>Excellent</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="46">
         <f>LOOKUP(C2,$H$2:$H$12,$I$2:$I$12)</f>
         <v>4</v>
       </c>
-      <c r="F2" s="33" t="str">
+      <c r="F2" s="48" t="str">
         <f>VLOOKUP(C2,$H$2:$J$12,3,TRUE)</f>
         <v>Excellent</v>
       </c>
-      <c r="G2" s="33">
+      <c r="G2" s="50">
         <f>HLOOKUP(C2,$A$21:$L$23,2,TRUE)</f>
         <v>4</v>
       </c>
-      <c r="H2" s="33">
+      <c r="H2" s="38">
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="38">
         <v>0</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="38" t="s">
         <v>46</v>
       </c>
       <c r="K2" s="33"/>
@@ -3273,39 +3443,39 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="33">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
         <v>2</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="42">
         <v>80</v>
       </c>
-      <c r="D3" s="33" t="str">
+      <c r="D3" s="44" t="str">
         <f t="shared" ref="D3:D5" si="0">IF(C3&gt;=90,"Excellent",IF(C3&gt;=85,"Very Good",IF(C3&gt;=80,"Good",IF(C3&gt;=75,"Above Average",IF(C3&gt;=45,"Barely Passing",IF(C3&gt;=0,"Fail"))))))</f>
         <v>Good</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="46">
         <f t="shared" ref="E3:E5" si="1">LOOKUP(C3,$H$2:$H$12,$I$2:$I$12)</f>
         <v>3.3</v>
       </c>
-      <c r="F3" s="33" t="str">
+      <c r="F3" s="48" t="str">
         <f t="shared" ref="F3:F5" si="2">VLOOKUP(C3,$H$2:$J$12,3,TRUE)</f>
         <v>Good</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="50">
         <f t="shared" ref="G3:G5" si="3">HLOOKUP(C3,$A$21:$L$23,2,TRUE)</f>
         <v>3.3</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="38">
         <v>45</v>
       </c>
-      <c r="I3" s="33">
+      <c r="I3" s="38">
         <v>1</v>
       </c>
-      <c r="J3" s="33" t="s">
+      <c r="J3" s="38" t="s">
         <v>85</v>
       </c>
       <c r="K3" s="33"/>
@@ -3314,39 +3484,39 @@
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="33">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
         <v>3</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="42">
         <v>75</v>
       </c>
-      <c r="D4" s="33" t="str">
+      <c r="D4" s="44" t="str">
         <f t="shared" si="0"/>
         <v>Above Average</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="46">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F4" s="33" t="str">
+      <c r="F4" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Above Average</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="50">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="38">
         <v>50</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="38">
         <v>1.3</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="38" t="s">
         <v>86</v>
       </c>
       <c r="K4" s="33"/>
@@ -3355,39 +3525,39 @@
       <c r="N4" s="29"/>
       <c r="O4" s="29"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="33">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
         <v>4</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="42">
         <v>40</v>
       </c>
-      <c r="D5" s="33" t="str">
+      <c r="D5" s="44" t="str">
         <f t="shared" si="0"/>
         <v>Fail</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="46">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F5" s="33" t="str">
+      <c r="F5" s="48" t="str">
         <f t="shared" si="2"/>
         <v>Fail</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="50">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="38">
         <v>55</v>
       </c>
-      <c r="I5" s="33">
+      <c r="I5" s="38">
         <v>1.7</v>
       </c>
-      <c r="J5" s="33" t="s">
+      <c r="J5" s="38" t="s">
         <v>40</v>
       </c>
       <c r="K5" s="33"/>
@@ -3396,210 +3566,198 @@
       <c r="N5" s="29"/>
       <c r="O5" s="29"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H6" s="33">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H6" s="38">
         <v>60</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="38">
         <v>2</v>
       </c>
-      <c r="J6" s="34" t="s">
+      <c r="J6" s="38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H7" s="33">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H7" s="38">
         <v>65</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="J7" s="34" t="s">
+      <c r="J7" s="38" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H8" s="33">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H8" s="38">
         <v>70</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="38">
         <v>2.7</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="38" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H9" s="33">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H9" s="38">
         <v>75</v>
       </c>
-      <c r="I9" s="34">
+      <c r="I9" s="38">
         <v>3</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H10" s="33">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H10" s="38">
         <v>80</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="38">
         <v>3.3</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H11" s="33">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H11" s="38">
         <v>85</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="38">
         <v>3.7</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="38" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H12" s="33">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="H12" s="38">
         <v>90</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="38">
         <v>4</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="33">
+      <c r="B21" s="37">
         <v>0</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="37">
         <v>45</v>
       </c>
-      <c r="D21" s="33">
+      <c r="D21" s="37">
         <v>50</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="37">
         <v>55</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="37">
         <v>60</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="37">
         <v>65</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="37">
         <v>70</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="37">
         <v>75</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="37">
         <v>80</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="37">
         <v>85</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="37">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="33">
+      <c r="B22" s="37">
         <v>0</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="37">
         <v>1</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D22" s="37">
         <v>1.3</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="37">
         <v>1.7</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="37">
         <v>2</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="37">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="37">
         <v>2.7</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="37">
         <v>3</v>
       </c>
-      <c r="J22" s="34">
+      <c r="J22" s="37">
         <v>3.3</v>
       </c>
-      <c r="K22" s="34">
+      <c r="K22" s="37">
         <v>3.7</v>
       </c>
-      <c r="L22" s="34">
+      <c r="L22" s="37">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B23" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="34" t="s">
+      <c r="F23" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G23" s="34" t="s">
+      <c r="G23" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="H23" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="34" t="s">
+      <c r="L23" s="37" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72CFC3D2-063A-4899-B947-A5FE1CE49937}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>